--- a/LoanOfficer-A/2023/Loanee -khoirom priyadarsini.xlsx
+++ b/LoanOfficer-A/2023/Loanee -khoirom priyadarsini.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="loanForm" sheetId="16" r:id="rId1"/>
-    <sheet name="MD10000.20-OCT" sheetId="15" r:id="rId2"/>
+    <sheet name="MD15000.27-NOV" sheetId="15" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'MD10000.20-OCT'!$A$3:$N$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'MD15000.27-NOV'!$A$3:$N$32</definedName>
   </definedNames>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -777,7 +777,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -823,7 +823,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -832,7 +832,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>1200</v>
+        <v>2250</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -865,7 +865,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>16800</v>
+        <v>15750</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -905,9 +905,15 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="3">
+        <v>45271</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1050</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
       <c r="E4" s="1">
         <v>32</v>
       </c>

--- a/LoanOfficer-A/2023/Loanee -khoirom priyadarsini.xlsx
+++ b/LoanOfficer-A/2023/Loanee -khoirom priyadarsini.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="loanForm" sheetId="16" r:id="rId1"/>
     <sheet name="MD15000.27-NOV" sheetId="15" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'MD15000.27-NOV'!$A$3:$N$32</definedName>
@@ -777,7 +778,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -823,7 +824,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -832,7 +833,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>2250</v>
+        <v>3300</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -856,7 +857,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -865,7 +866,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>15750</v>
+        <v>14700</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -937,9 +938,15 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="1"/>
+      <c r="B5" s="3">
+        <v>45278</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1050</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
       <c r="E5" s="1">
         <v>33</v>
       </c>
@@ -1670,4 +1677,16 @@
     <oddFooter>&amp;CTungfam Finance, Singjamei Mayengbam Leikai, Imphalmobile: 7640924201</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LoanOfficer-A/2023/Loanee -khoirom priyadarsini.xlsx
+++ b/LoanOfficer-A/2023/Loanee -khoirom priyadarsini.xlsx
@@ -328,7 +328,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -606,7 +606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -778,7 +778,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -824,7 +824,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -833,7 +833,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>3300</v>
+        <v>4350</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -866,7 +866,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>14700</v>
+        <v>13650</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -970,9 +970,15 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="3">
+        <v>45285</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1050</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
       <c r="E6" s="1">
         <v>34</v>
       </c>

--- a/LoanOfficer-A/2023/Loanee -khoirom priyadarsini.xlsx
+++ b/LoanOfficer-A/2023/Loanee -khoirom priyadarsini.xlsx
@@ -328,7 +328,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -606,7 +606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -778,7 +778,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -824,7 +824,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -833,7 +833,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>4350</v>
+        <v>5400</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -866,7 +866,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>13650</v>
+        <v>12600</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1002,9 +1002,15 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="3">
+        <v>45293</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1050</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
       <c r="E7" s="1">
         <v>35</v>
       </c>
